--- a/UVCrawler/files/数据字典.xlsx
+++ b/UVCrawler/files/数据字典.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
   <si>
     <t>NO</t>
   </si>
@@ -155,13 +155,7 @@
     <t>auto_increment</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
   </si>
   <si>
     <t>datetime</t>
@@ -1294,6 +1288,10 @@
   </si>
   <si>
     <t>company_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(70)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1800,98 +1798,98 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="31" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="31" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2212,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78:G80"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2235,60 +2233,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.8">
-      <c r="A1" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="A1" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="2"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="D4" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="42"/>
+      <c r="A5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="41"/>
       <c r="C5" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -2297,25 +2295,25 @@
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="38"/>
+      <c r="A6" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="39"/>
       <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="13"/>
       <c r="D7" s="43"/>
       <c r="E7" s="44"/>
@@ -2325,19 +2323,19 @@
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="13"/>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
@@ -2347,19 +2345,19 @@
       <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="13"/>
       <c r="D11" s="43"/>
       <c r="E11" s="44"/>
@@ -2369,19 +2367,19 @@
       <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="13"/>
       <c r="D13" s="43"/>
       <c r="E13" s="44"/>
@@ -2391,19 +2389,19 @@
       <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="13"/>
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
@@ -2413,19 +2411,19 @@
       <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="13"/>
       <c r="D17" s="43"/>
       <c r="E17" s="44"/>
@@ -2435,21 +2433,21 @@
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
@@ -2457,19 +2455,19 @@
       <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="13"/>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -2479,24 +2477,24 @@
       <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="A25" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2505,14 +2503,14 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="40"/>
+      <c r="A28" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="54"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
@@ -2535,31 +2533,31 @@
       <c r="B33" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
+      <c r="A35" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="A38" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -2592,10 +2590,10 @@
     </row>
     <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>0</v>
@@ -2612,15 +2610,15 @@
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>0</v>
@@ -2633,15 +2631,15 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>0</v>
@@ -2654,15 +2652,15 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>0</v>
@@ -2675,15 +2673,15 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>0</v>
@@ -2696,15 +2694,15 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>0</v>
@@ -2717,15 +2715,15 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>0</v>
@@ -2738,15 +2736,15 @@
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>0</v>
@@ -2759,15 +2757,15 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>0</v>
@@ -2780,15 +2778,15 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>0</v>
@@ -2804,7 +2802,7 @@
     </row>
     <row r="50" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>11</v>
@@ -2823,10 +2821,10 @@
     </row>
     <row r="51" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>0</v>
@@ -2842,10 +2840,10 @@
     </row>
     <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>0</v>
@@ -2861,13 +2859,13 @@
     </row>
     <row r="53" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -2880,9 +2878,11 @@
     </row>
     <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2895,9 +2895,11 @@
     </row>
     <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -2910,9 +2912,11 @@
     </row>
     <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2925,9 +2929,11 @@
     </row>
     <row r="57" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2940,9 +2946,11 @@
     </row>
     <row r="58" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2955,9 +2963,11 @@
     </row>
     <row r="59" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -2970,9 +2980,11 @@
     </row>
     <row r="60" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2985,9 +2997,11 @@
     </row>
     <row r="61" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -2999,81 +3013,81 @@
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A62" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="51"/>
+      <c r="A62" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G64" s="5">
         <v>0</v>
@@ -3082,7 +3096,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
@@ -3223,17 +3237,17 @@
       <c r="M73" s="7"/>
     </row>
     <row r="76" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
+      <c r="A76" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3302,61 +3316,61 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A81" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="51"/>
+      <c r="A81" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="37"/>
     </row>
     <row r="82" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3406,16 +3420,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A81:M81"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A25:E25"/>
@@ -3432,27 +3452,21 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D13:I13"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:I6"/>
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A62:M62"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A81:M81"/>
+    <mergeCell ref="A76:I76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3494,32 +3508,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="A2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
@@ -3534,117 +3548,117 @@
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="18" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="17" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3667,26 +3681,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="54"/>
+      <c r="A2" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -3694,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3703,91 +3717,91 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
     </row>

--- a/UVCrawler/files/数据字典.xlsx
+++ b/UVCrawler/files/数据字典.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>NO</t>
   </si>
@@ -161,15 +161,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>PRIMARY</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>BTREE</t>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,14 +225,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bk_doc</t>
-  </si>
-  <si>
     <t>varchar(70)</t>
-  </si>
-  <si>
-    <t>TABLE:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
@@ -1155,10 +1139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(20) unsigned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,50 +1147,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司所属行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_provice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司所属省份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司所属城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司所属城镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_linkman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1223,75 +1179,451 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_legalPersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_mainProducts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_regDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_regMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_mobilePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_telePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_website</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>storeDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_empCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_turnover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_website_outerid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_parent_web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>provice</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>linkman</t>
+  </si>
+  <si>
+    <t>legalPersion</t>
+  </si>
+  <si>
+    <t>mainProducts</t>
+  </si>
+  <si>
+    <t>regDate</t>
+  </si>
+  <si>
+    <t>regMoney</t>
+  </si>
+  <si>
+    <t>mobilePhone</t>
+  </si>
+  <si>
+    <t>telePhone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>empCount</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>website_outerid</t>
+  </si>
+  <si>
+    <t>parent_web</t>
+  </si>
+  <si>
+    <t>注册日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年营业额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄页唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属黄页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_provice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_linkman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_legalPersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_mainProducts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_regDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_regMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_mobilePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_telePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_empCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_turnover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_website_outerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_parent_web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TABLE:uv_reg_company (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司信息标签表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TABLE:uv_website(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄页信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entryPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimPageReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aimParentPageReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标网页规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标网页的父网页规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useProxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息源评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TABLE:uv_website(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代理信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类别（css/xpath）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileIndexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,6 +2130,45 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1816,57 +2187,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1884,6 +2204,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2208,20 +2540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="49.125" style="1" customWidth="1"/>
@@ -2233,268 +2565,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.8">
-      <c r="A1" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="A1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="2"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="55"/>
+      <c r="A4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="48"/>
       <c r="C4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="41"/>
+      <c r="A5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="44"/>
       <c r="C5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="15"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="15"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="15"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="15"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="15"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="15"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="15"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="15"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="A25" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2503,14 +2835,14 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="54"/>
+      <c r="A28" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="42"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
@@ -2533,31 +2865,31 @@
       <c r="B33" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="A35" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
+      <c r="A38" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -2590,13 +2922,13 @@
     </row>
     <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>1</v>
@@ -2610,15 +2942,15 @@
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>0</v>
@@ -2631,18 +2963,18 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2652,18 +2984,18 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2673,18 +3005,18 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2694,18 +3026,18 @@
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="27" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2715,15 +3047,15 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="26" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>0</v>
@@ -2736,18 +3068,18 @@
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="27" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2757,18 +3089,18 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="26" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2778,18 +3110,18 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="27" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2798,17 +3130,19 @@
         <v>41863</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="26" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="50" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2817,17 +3151,19 @@
         <v>41863</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="51" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -2836,17 +3172,19 @@
         <v>41863</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="I51" s="26" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2855,14 +3193,16 @@
         <v>41863</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
@@ -2874,16 +3214,20 @@
         <v>41863</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="I53" s="26" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="54" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2891,16 +3235,20 @@
         <v>41863</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="27" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -2908,16 +3256,20 @@
         <v>41863</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="I55" s="26" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2925,16 +3277,20 @@
         <v>41863</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="27" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="57" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2942,16 +3298,20 @@
         <v>41863</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="26" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="58" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2959,16 +3319,20 @@
         <v>41863</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="27" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="59" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2976,16 +3340,20 @@
         <v>41863</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="26" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2993,16 +3361,20 @@
         <v>41863</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="61" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -3010,416 +3382,1367 @@
         <v>41863</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A62" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="37"/>
-    </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="I61" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="56"/>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="J64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="3" t="s">
+    </row>
+    <row r="65" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="68" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="56"/>
+    </row>
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-    </row>
-    <row r="67" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-    </row>
-    <row r="69" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="7"/>
-    </row>
-    <row r="71" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="10">
+        <v>41863</v>
+      </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
+      <c r="I71" s="26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="72" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="9">
+        <v>41863</v>
+      </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="7"/>
+      <c r="I72" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="73" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="10">
+        <v>41863</v>
+      </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-    </row>
-    <row r="76" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="I73" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="10">
+        <v>41863</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="10">
+        <v>41863</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="9"/>
+      <c r="G78" s="9">
+        <v>41863</v>
+      </c>
       <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="I78" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="10">
+        <v>41863</v>
+      </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="I79" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="9">
+        <v>41863</v>
+      </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A81" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="37"/>
-    </row>
-    <row r="82" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>29</v>
+      <c r="I80" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="10">
+        <v>41863</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-    </row>
-    <row r="84" spans="1:13" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
+      <c r="A83" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="10">
+        <v>41863</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="27" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="85" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="9">
+        <v>41863</v>
+      </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+      <c r="I85" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="10">
+        <v>41863</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="10">
+        <v>41863</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A91" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="56"/>
+    </row>
+    <row r="92" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+    </row>
+    <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.4">
+      <c r="A96" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="56"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="55"/>
+      <c r="M109" s="56"/>
+    </row>
+    <row r="110" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="1:13" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+    </row>
+    <row r="114" spans="1:13" ht="27" x14ac:dyDescent="0.4">
+      <c r="A114" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="56"/>
+    </row>
+    <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="27"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="26"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="27"/>
+    </row>
+    <row r="127" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A127" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="55"/>
+      <c r="L127" s="55"/>
+      <c r="M127" s="56"/>
+    </row>
+    <row r="128" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="1:13" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="51">
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A127:M127"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A109:M109"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A91:M91"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A12:B12"/>
@@ -3436,37 +4759,6 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A81:M81"/>
-    <mergeCell ref="A76:I76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3508,32 +4800,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="A2" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
@@ -3548,117 +4840,117 @@
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="17" t="s">
+      <c r="D8" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="62"/>
+      <c r="A12" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="58"/>
       <c r="C12" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,25 +4974,25 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="68"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -3708,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -3717,91 +5009,91 @@
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5"/>
     </row>

--- a/UVCrawler/files/数据字典.xlsx
+++ b/UVCrawler/files/数据字典.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="221">
   <si>
     <t>NO</t>
   </si>
@@ -1524,8 +1524,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TABLE:uv_website(</t>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类别（css/xpath）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileIndexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>website_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TABLE:uv_proxy(</t>
     </r>
     <r>
       <rPr>
@@ -1551,79 +1631,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>responseTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签类别（css/xpath）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileIndexed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否被索引</t>
+    <r>
+      <t>TABLE:uv_urlfilter(URL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许通过或者禁止通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TABLE:uv_crawllog(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采集日志表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>website_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TABLE:uv_crawllog(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误日志表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url匹配表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配方式：开始、结束、全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误所在类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2169,6 +2326,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2177,15 +2343,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2540,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2865,31 +3022,31 @@
       <c r="B33" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -3388,10 +3545,10 @@
     </row>
     <row r="62" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>13</v>
@@ -3404,25 +3561,25 @@
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="56"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="53"/>
     </row>
     <row r="64" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -3496,17 +3653,17 @@
       <c r="M66" s="7"/>
     </row>
     <row r="68" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="56"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="53"/>
     </row>
     <row r="69" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -3963,10 +4120,10 @@
     </row>
     <row r="90" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>13</v>
@@ -3979,25 +4136,25 @@
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="56"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="53"/>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -4071,17 +4228,17 @@
       <c r="M94" s="7"/>
     </row>
     <row r="96" spans="1:13" ht="27" x14ac:dyDescent="0.4">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="56"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="53"/>
     </row>
     <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -4218,7 +4375,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4292,21 +4449,21 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="55"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="55"/>
-      <c r="M109" s="56"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
+      <c r="I109" s="52"/>
+      <c r="J109" s="52"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="52"/>
+      <c r="M109" s="53"/>
     </row>
     <row r="110" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -4395,17 +4552,17 @@
       <c r="M113" s="5"/>
     </row>
     <row r="114" spans="1:13" ht="27" x14ac:dyDescent="0.4">
-      <c r="A114" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="56"/>
+      <c r="A114" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="53"/>
     </row>
     <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
@@ -4467,7 +4624,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4477,12 +4634,12 @@
       <c r="G117" s="10"/>
       <c r="H117" s="7"/>
       <c r="I117" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4492,12 +4649,12 @@
       <c r="G118" s="9"/>
       <c r="H118" s="5"/>
       <c r="I118" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4507,12 +4664,12 @@
       <c r="G119" s="10"/>
       <c r="H119" s="7"/>
       <c r="I119" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4522,12 +4679,12 @@
       <c r="G120" s="9"/>
       <c r="H120" s="5"/>
       <c r="I120" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4537,12 +4694,12 @@
       <c r="G121" s="10"/>
       <c r="H121" s="7"/>
       <c r="I121" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4557,7 +4714,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4567,7 +4724,7 @@
       <c r="G123" s="10"/>
       <c r="H123" s="7"/>
       <c r="I123" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -4604,21 +4761,21 @@
       <c r="I126" s="27"/>
     </row>
     <row r="127" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="55"/>
-      <c r="L127" s="55"/>
-      <c r="M127" s="56"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
+      <c r="J127" s="52"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="53"/>
     </row>
     <row r="128" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
@@ -4706,8 +4863,611 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
     </row>
+    <row r="132" spans="1:13" ht="27" x14ac:dyDescent="0.4">
+      <c r="A132" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="53"/>
+    </row>
+    <row r="133" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A139" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="52"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
+      <c r="I139" s="52"/>
+      <c r="J139" s="52"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="53"/>
+    </row>
+    <row r="140" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="1:13" ht="27" x14ac:dyDescent="0.4">
+      <c r="A142" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="53"/>
+    </row>
+    <row r="143" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A148" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="52"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="52"/>
+      <c r="L148" s="52"/>
+      <c r="M148" s="53"/>
+    </row>
+    <row r="149" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="1:13" ht="27" x14ac:dyDescent="0.4">
+      <c r="A151" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="53"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="9">
+        <v>41863</v>
+      </c>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A158" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="52"/>
+      <c r="L158" s="52"/>
+      <c r="M158" s="53"/>
+    </row>
+    <row r="159" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="57">
+    <mergeCell ref="A158:M158"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A139:M139"/>
+    <mergeCell ref="A142:I142"/>
+    <mergeCell ref="A148:M148"/>
+    <mergeCell ref="A151:I151"/>
     <mergeCell ref="A114:I114"/>
     <mergeCell ref="A127:M127"/>
     <mergeCell ref="A35:I35"/>
@@ -4980,9 +5740,9 @@
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
